--- a/Accuracies.xlsx
+++ b/Accuracies.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uceerjp\Desktop\PhD\Year 2\DeepLearning-on-ALS-MI-Data\Graphs\Understanding Stability in Graphical Representation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009C3199-5E8B-4582-B7C0-67C19FE2C619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B885FBB-37FC-44C2-9DF6-D32ADEFBA484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-12645" yWindow="0" windowWidth="12750" windowHeight="15585" activeTab="1" xr2:uid="{44BD2607-64BA-4B1D-B8EA-B15CFDCAF805}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{44BD2607-64BA-4B1D-B8EA-B15CFDCAF805}"/>
   </bookViews>
   <sheets>
     <sheet name="Run 1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Run 2'!$E$10:$S$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -244,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -271,10 +270,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -282,5787 +278,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="612">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -8157,8 +2373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C7F1FC-1F61-492A-89D7-E7185DF08951}">
   <dimension ref="A3:BK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="54" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AQ46" sqref="AQ46"/>
+    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z31" sqref="Z31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8421,16 +2637,16 @@
       </c>
       <c r="R8" s="19"/>
       <c r="S8" s="19"/>
-      <c r="T8" s="21" t="s">
+      <c r="T8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21" t="s">
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" t="s">
         <v>2</v>
       </c>
@@ -12875,54 +7091,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="BG7:BJ7"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AU8:AX8"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="AE41:AH41"/>
-    <mergeCell ref="AI41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AQ41:AT41"/>
-    <mergeCell ref="AU41:AX41"/>
-    <mergeCell ref="AY41:BB41"/>
-    <mergeCell ref="AU7:AX7"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AQ6:AT6"/>
-    <mergeCell ref="AY8:BB8"/>
     <mergeCell ref="BC8:BF8"/>
     <mergeCell ref="BC7:BF7"/>
     <mergeCell ref="BC6:BF6"/>
@@ -12939,6 +7107,54 @@
     <mergeCell ref="AE7:AH7"/>
     <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AY41:BB41"/>
+    <mergeCell ref="AU7:AX7"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="AE41:AH41"/>
+    <mergeCell ref="AI41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AQ41:AT41"/>
+    <mergeCell ref="AU41:AX41"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AU8:AX8"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="BG7:BJ7"/>
+    <mergeCell ref="BG6:BJ6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:Y10">
     <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">

--- a/Accuracies.xlsx
+++ b/Accuracies.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uceerjp\Desktop\PhD\Year 2\DeepLearning-on-ALS-MI-Data\Graphs\Understanding Stability in Graphical Representation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B885FBB-37FC-44C2-9DF6-D32ADEFBA484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC929B2-0191-440B-AFBA-948028590225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{44BD2607-64BA-4B1D-B8EA-B15CFDCAF805}"/>
+    <workbookView xWindow="-28860" yWindow="0" windowWidth="28965" windowHeight="15585" activeTab="2" xr2:uid="{44BD2607-64BA-4B1D-B8EA-B15CFDCAF805}"/>
   </bookViews>
   <sheets>
     <sheet name="Run 1" sheetId="1" r:id="rId1"/>
     <sheet name="Run 2" sheetId="4" r:id="rId2"/>
+    <sheet name="With Explain" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Run 1'!$B$7:$G$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Run 2'!$E$10:$S$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'With Explain'!$E$13:$S$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="32">
   <si>
     <t>Patient</t>
   </si>
@@ -122,6 +124,21 @@
   </si>
   <si>
     <t>Average Train Time per Subject per Fold Pair (s)</t>
+  </si>
+  <si>
+    <t>1.28GB</t>
+  </si>
+  <si>
+    <t>RAM (GB)</t>
+  </si>
+  <si>
+    <t>Model Parameters</t>
+  </si>
+  <si>
+    <t>Model Memory (MB)</t>
+  </si>
+  <si>
+    <t>0.01MB</t>
   </si>
 </sst>
 </file>
@@ -264,13 +281,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -278,7 +295,367 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="70">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2373,8 +2750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C7F1FC-1F61-492A-89D7-E7185DF08951}">
   <dimension ref="A3:BK68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z31" sqref="Z31"/>
+    <sheetView topLeftCell="I2" zoomScale="71" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2413,69 +2790,69 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="19">
         <f>AVERAGE(0.004, 0.002, 0.003, 0.002, 0.002, 0.002, 0.002, 0.003)</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18">
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19">
         <v>0.31560575000000002</v>
       </c>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18">
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19">
         <f>AVERAGE(65.9997, 70.7295, 65.9817, 70.9299, 70.0629, 69.1348, 65.8789, 66.5851, 66.2467, 70.182, 65.5748, 69.4074, 69.4422, 69.2278, 66.2069, 66.6355, 66.3827, 70.2755, 71.5449, 69.437, 68.9615, 69.0338, 69.437)</f>
         <v>68.40426956521739</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18">
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19">
         <f>AVERAGE(71.0671, 68.9061, 67.057, 73.4368, 72.6158, 72.6665, 67.2654, 67.3336, 67.0413, 68.9938, 69.3866, 69.1474, 68.6321, 68.368, 70.2027, 80.0363, 67.9009, 71.3562, 63.5618, 64.7515, 64.5774, 64.3539, 64.1177, 70.0908)</f>
         <v>68.86944583333333</v>
       </c>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18">
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19">
         <f>AVERAGE(64.3383, 64.9885, 65.1879, 70.4244, 69.4368, 70.7153, 64.5491, 64.5018, 63.9125, 68.2774, 66.2996, 67.6003, 67.4875, 67.6287, 67.3547, 66.8374, 67.5192, 66.9178, 61.1148, 61.403, 61.0639, 63.6442, 63.6956, 63.2121)</f>
         <v>65.754616666666678</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18">
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19">
         <f>AVERAGE(72.0977, 74.1253, 67.7548, 68.7456, 69.1855, 68.3395, 65.6189, 64.98, 69.5215, 73.446, 67.4633, 68.9, 68.2656, 67.8983, 77.3681, 74.0519, 67.5916, 68.7083, 68.3478, 67.7037, 64.8101, 64.8788)</f>
         <v>69.081922727272726</v>
       </c>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18">
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19">
         <v>375.54</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18">
+      <c r="U6" s="19"/>
+      <c r="V6" s="19"/>
+      <c r="W6" s="19">
         <v>366.15</v>
       </c>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
+      <c r="X6" s="19"/>
+      <c r="Y6" s="19"/>
       <c r="AD6" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="18">
+      <c r="AE6" s="19">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="18"/>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="18"/>
-      <c r="AO6" s="18"/>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="18"/>
-      <c r="AR6" s="18"/>
-      <c r="AS6" s="18"/>
-      <c r="AT6" s="18"/>
-      <c r="AU6" s="18">
+      <c r="AF6" s="19"/>
+      <c r="AG6" s="19"/>
+      <c r="AH6" s="19"/>
+      <c r="AM6" s="19"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="19"/>
+      <c r="AP6" s="19"/>
+      <c r="AQ6" s="19"/>
+      <c r="AR6" s="19"/>
+      <c r="AS6" s="19"/>
+      <c r="AT6" s="19"/>
+      <c r="AU6" s="19">
         <f>AVERAGE(49.6775,
 44.6618,
 44.7039,
@@ -2503,204 +2880,204 @@
 42.331)</f>
         <v>44.850239999999992</v>
       </c>
-      <c r="AV6" s="18"/>
-      <c r="AW6" s="18"/>
-      <c r="AX6" s="18"/>
-      <c r="BC6" s="18">
+      <c r="AV6" s="19"/>
+      <c r="AW6" s="19"/>
+      <c r="AX6" s="19"/>
+      <c r="BC6" s="19">
         <v>682.024</v>
       </c>
-      <c r="BD6" s="18"/>
-      <c r="BE6" s="18"/>
-      <c r="BF6" s="18"/>
-      <c r="BG6" s="18"/>
-      <c r="BH6" s="18"/>
-      <c r="BI6" s="18"/>
-      <c r="BJ6" s="18"/>
+      <c r="BD6" s="19"/>
+      <c r="BE6" s="19"/>
+      <c r="BF6" s="19"/>
+      <c r="BG6" s="19"/>
+      <c r="BH6" s="19"/>
+      <c r="BI6" s="19"/>
+      <c r="BJ6" s="19"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="18">
+      <c r="B7" s="19">
         <v>0</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18">
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19">
         <v>6.4424999999999997E-4</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18">
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19">
         <f>AVERAGE(0.0327, 0.0347, 0.0328, 0.0352, 0.0345, 0.0343, 0.0324, 0.0329, 0.0331, 0.0345, 0.0328, 0.0346, 0.0342, 0.0343, 0.0329, 0.0329, 0.0333, 0.0349, 0.0357, 0.0343, 0.0342, 0.034, 0.0343)</f>
         <v>3.3891304347826098E-2</v>
       </c>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18">
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19">
         <f>AVERAGE(0.0356, 0.0347, 0.0335, 0.0363, 0.036, 0.0359, 0.0338, 0.0337, 0.0335, 0.0344, 0.0347, 0.0345, 0.0343, 0.0338, 0.0351, 0.0389, 0.0331, 0.0357, 0.0317, 0.0323, 0.0322, 0.0317, 0.032, 0.0347)</f>
         <v>3.4254166666666662E-2</v>
       </c>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18">
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19">
         <f>AVERAGE(0.0322, 0.0327, 0.0335, 0.0353, 0.0352, 0.0362, 0.0327, 0.0324, 0.0318, 0.0337, 0.0328, 0.0335, 0.0336, 0.0334, 0.0333, 0.0341, 0.0341, 0.0341, 0.0303, 0.0316, 0.0308, 0.0316, 0.0315, 0.0312)</f>
         <v>3.2983333333333337E-2</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18">
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19">
         <f>AVERAGE(0.0356, 0.0368, 0.034, 0.0343, 0.0344, 0.0339, 0.0326, 0.0323, 0.0349, 0.0364, 0.0338, 0.0346, 0.0338, 0.0334, 0.0391, 0.0369, 0.0337, 0.0343, 0.034, 0.0335, 0.0323, 0.0324)</f>
         <v>3.4409090909090903E-2</v>
       </c>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18">
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19">
         <v>1.9009999999999999E-3</v>
       </c>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
-      <c r="W7" s="18">
+      <c r="U7" s="19"/>
+      <c r="V7" s="19"/>
+      <c r="W7" s="19">
         <v>1.696E-3</v>
       </c>
-      <c r="X7" s="18"/>
-      <c r="Y7" s="18"/>
+      <c r="X7" s="19"/>
+      <c r="Y7" s="19"/>
       <c r="AD7" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="18">
+      <c r="AE7" s="19">
         <v>1E-3</v>
       </c>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="18"/>
-      <c r="AH7" s="18"/>
-      <c r="AM7" s="18">
+      <c r="AF7" s="19"/>
+      <c r="AG7" s="19"/>
+      <c r="AH7" s="19"/>
+      <c r="AM7" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AN7" s="18"/>
-      <c r="AO7" s="18"/>
-      <c r="AP7" s="18"/>
-      <c r="AQ7" s="18">
+      <c r="AN7" s="19"/>
+      <c r="AO7" s="19"/>
+      <c r="AP7" s="19"/>
+      <c r="AQ7" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AR7" s="18"/>
-      <c r="AS7" s="18"/>
-      <c r="AT7" s="18"/>
-      <c r="AU7" s="18">
+      <c r="AR7" s="19"/>
+      <c r="AS7" s="19"/>
+      <c r="AT7" s="19"/>
+      <c r="AU7" s="19">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AV7" s="18"/>
-      <c r="AW7" s="18"/>
-      <c r="AX7" s="18"/>
-      <c r="BC7" s="18">
+      <c r="AV7" s="19"/>
+      <c r="AW7" s="19"/>
+      <c r="AX7" s="19"/>
+      <c r="BC7" s="19">
         <v>2.3800000000000002E-3</v>
       </c>
-      <c r="BD7" s="18"/>
-      <c r="BE7" s="18"/>
-      <c r="BF7" s="18"/>
-      <c r="BG7" s="18"/>
-      <c r="BH7" s="18"/>
-      <c r="BI7" s="18"/>
-      <c r="BJ7" s="18"/>
+      <c r="BD7" s="19"/>
+      <c r="BE7" s="19"/>
+      <c r="BF7" s="19"/>
+      <c r="BG7" s="19"/>
+      <c r="BH7" s="19"/>
+      <c r="BI7" s="19"/>
+      <c r="BJ7" s="19"/>
     </row>
     <row r="8" spans="1:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19" t="s">
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19" t="s">
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19" t="s">
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="18" t="s">
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
-      <c r="W8" s="18" t="s">
+      <c r="U8" s="19"/>
+      <c r="V8" s="19"/>
+      <c r="W8" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="18"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="19"/>
       <c r="Z8" t="s">
         <v>2</v>
       </c>
       <c r="AD8" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" s="18" t="s">
+      <c r="AE8" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" s="18"/>
-      <c r="AG8" s="18"/>
-      <c r="AH8" s="18"/>
-      <c r="AI8" s="18" t="s">
+      <c r="AF8" s="19"/>
+      <c r="AG8" s="19"/>
+      <c r="AH8" s="19"/>
+      <c r="AI8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AJ8" s="18"/>
-      <c r="AK8" s="18"/>
-      <c r="AL8" s="18"/>
-      <c r="AM8" s="18" t="s">
+      <c r="AJ8" s="19"/>
+      <c r="AK8" s="19"/>
+      <c r="AL8" s="19"/>
+      <c r="AM8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AN8" s="18"/>
-      <c r="AO8" s="18"/>
-      <c r="AP8" s="18"/>
-      <c r="AQ8" s="18" t="s">
+      <c r="AN8" s="19"/>
+      <c r="AO8" s="19"/>
+      <c r="AP8" s="19"/>
+      <c r="AQ8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AR8" s="18"/>
-      <c r="AS8" s="18"/>
-      <c r="AT8" s="18"/>
-      <c r="AU8" s="18" t="s">
+      <c r="AR8" s="19"/>
+      <c r="AS8" s="19"/>
+      <c r="AT8" s="19"/>
+      <c r="AU8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AV8" s="18"/>
-      <c r="AW8" s="18"/>
-      <c r="AX8" s="18"/>
-      <c r="AY8" s="18" t="s">
+      <c r="AV8" s="19"/>
+      <c r="AW8" s="19"/>
+      <c r="AX8" s="19"/>
+      <c r="AY8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AZ8" s="18"/>
-      <c r="BA8" s="18"/>
-      <c r="BB8" s="18"/>
-      <c r="BC8" s="20" t="s">
+      <c r="AZ8" s="19"/>
+      <c r="BA8" s="19"/>
+      <c r="BB8" s="19"/>
+      <c r="BC8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="20"/>
-      <c r="BF8" s="20"/>
-      <c r="BG8" s="20" t="s">
+      <c r="BD8" s="18"/>
+      <c r="BE8" s="18"/>
+      <c r="BF8" s="18"/>
+      <c r="BG8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="20"/>
-      <c r="BJ8" s="20"/>
+      <c r="BH8" s="18"/>
+      <c r="BI8" s="18"/>
+      <c r="BJ8" s="18"/>
       <c r="BK8" t="s">
         <v>2</v>
       </c>
@@ -4793,24 +5170,24 @@
       </c>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -5571,46 +5948,46 @@
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18" t="s">
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18" t="s">
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18" t="s">
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18" t="s">
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18" t="s">
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18" t="s">
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18" t="s">
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
       <c r="AD28">
         <v>19</v>
       </c>
@@ -6617,6 +6994,38 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
+      <c r="AF36" s="14">
+        <f>AVERAGE(AE35:AH35)</f>
+        <v>0.50685999999999998</v>
+      </c>
+      <c r="AJ36" s="14">
+        <f>AVERAGE(AI35:AL35)</f>
+        <v>0.50094700000000003</v>
+      </c>
+      <c r="AN36" s="14">
+        <f>AVERAGE(AM35:AP35)</f>
+        <v>0.58310860760696814</v>
+      </c>
+      <c r="AR36" s="14">
+        <f>AVERAGE(AQ35:AT35)</f>
+        <v>0.59689500000000006</v>
+      </c>
+      <c r="AV36" s="14">
+        <f>AVERAGE(AU35:AX35)</f>
+        <v>0.61305100000000001</v>
+      </c>
+      <c r="AZ36" s="14">
+        <f>AVERAGE(AY35:BB35)</f>
+        <v>0.61482399999999993</v>
+      </c>
+      <c r="BD36" s="14">
+        <f>AVERAGE(BC35:BF35)</f>
+        <v>0.56650166666666668</v>
+      </c>
+      <c r="BH36" s="14">
+        <f>AVERAGE(BG35:BJ35)</f>
+        <v>0.56353100000000012</v>
+      </c>
     </row>
     <row r="37" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A37">
@@ -6708,42 +7117,42 @@
       <c r="AD41" t="s">
         <v>0</v>
       </c>
-      <c r="AE41" s="18" t="s">
+      <c r="AE41" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="AF41" s="18"/>
-      <c r="AG41" s="18"/>
-      <c r="AH41" s="18"/>
-      <c r="AI41" s="18" t="s">
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="AJ41" s="18"/>
-      <c r="AK41" s="18"/>
-      <c r="AL41" s="18"/>
-      <c r="AM41" s="18" t="s">
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="18"/>
-      <c r="AO41" s="18"/>
-      <c r="AP41" s="18"/>
-      <c r="AQ41" s="18" t="s">
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
+      <c r="AQ41" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AR41" s="18"/>
-      <c r="AS41" s="18"/>
-      <c r="AT41" s="18"/>
-      <c r="AU41" s="18" t="s">
+      <c r="AR41" s="19"/>
+      <c r="AS41" s="19"/>
+      <c r="AT41" s="19"/>
+      <c r="AU41" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AV41" s="18"/>
-      <c r="AW41" s="18"/>
-      <c r="AX41" s="18"/>
-      <c r="AY41" s="18" t="s">
+      <c r="AV41" s="19"/>
+      <c r="AW41" s="19"/>
+      <c r="AX41" s="19"/>
+      <c r="AY41" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="AZ41" s="18"/>
-      <c r="BA41" s="18"/>
-      <c r="BB41" s="18"/>
+      <c r="AZ41" s="19"/>
+      <c r="BA41" s="19"/>
+      <c r="BB41" s="19"/>
       <c r="BC41" s="4"/>
       <c r="BD41" s="4"/>
       <c r="BE41" s="4"/>
@@ -7091,6 +7500,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="BG7:BJ7"/>
+    <mergeCell ref="BG6:BJ6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AU8:AX8"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="AE41:AH41"/>
+    <mergeCell ref="AI41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AQ41:AT41"/>
+    <mergeCell ref="AU41:AX41"/>
+    <mergeCell ref="AY41:BB41"/>
+    <mergeCell ref="AU7:AX7"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="AY8:BB8"/>
     <mergeCell ref="BC8:BF8"/>
     <mergeCell ref="BC7:BF7"/>
     <mergeCell ref="BC6:BF6"/>
@@ -7107,220 +7564,172 @@
     <mergeCell ref="AE7:AH7"/>
     <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="AI8:AL8"/>
-    <mergeCell ref="AY41:BB41"/>
-    <mergeCell ref="AU7:AX7"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AQ6:AT6"/>
-    <mergeCell ref="AY8:BB8"/>
-    <mergeCell ref="AE41:AH41"/>
-    <mergeCell ref="AI41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AQ41:AT41"/>
-    <mergeCell ref="AU41:AX41"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AU8:AX8"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="BG7:BJ7"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:Y10">
-    <cfRule type="cellIs" dxfId="33" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="34" operator="greaterThan">
       <formula>$Z$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:Y11">
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="33" operator="greaterThan">
       <formula>$Z$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B12:Y12">
-    <cfRule type="cellIs" dxfId="31" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="67" priority="32" operator="greaterThan">
       <formula>$Z$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:Y13">
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="31" operator="greaterThan">
       <formula>$Z$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:Y14">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="30" operator="greaterThan">
       <formula>$Z$14</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:Y15">
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="64" priority="29" operator="greaterThan">
       <formula>$Z$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:Y16">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="28" operator="greaterThan">
       <formula>$Z$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:Y17">
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="27" operator="greaterThan">
       <formula>$Z$17</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE10:BJ10">
-    <cfRule type="cellIs" dxfId="25" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="26" operator="greaterThan">
       <formula>$BK$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:BJ11">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="25" operator="greaterThan">
       <formula>$BK$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE12:BJ12">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="24" operator="greaterThan">
       <formula>$BK$12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE13:BJ13">
-    <cfRule type="cellIs" dxfId="22" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="23" operator="greaterThan">
       <formula>$BK$13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE14:BJ14">
-    <cfRule type="cellIs" dxfId="21" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="22" operator="greaterThan">
       <formula>0.5692</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE15:BJ15">
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="greaterThan">
       <formula>$BK$15</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE16:BJ16">
-    <cfRule type="cellIs" dxfId="19" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="20" operator="greaterThan">
       <formula>$BK$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE17:BJ17">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="19" operator="greaterThan">
       <formula>0.5588</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE18:BJ18">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="18" operator="greaterThan">
       <formula>$BK$18</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE19:BJ19">
-    <cfRule type="cellIs" dxfId="16" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="17" operator="greaterThan">
       <formula>$BK$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE20:BJ20">
-    <cfRule type="cellIs" dxfId="15" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="16" operator="greaterThan">
       <formula>$BK$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE21:BJ21">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="14" operator="greaterThan">
+      <formula>$BK$21</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="15" operator="greaterThan">
       <formula>"5$BK$21"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="greaterThan">
-      <formula>$BK$21</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:BJ22">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="13" operator="greaterThan">
       <formula>$BK$22</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE23:BJ23">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="12" operator="greaterThan">
       <formula>$BK$23</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE24:BJ24">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="11" operator="greaterThan">
       <formula>$BK$24</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE25:BJ25">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="10" operator="greaterThan">
       <formula>$BK$25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE26:BJ26">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="9" operator="greaterThan">
       <formula>$BK$26</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE27:BJ27">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="8" operator="greaterThan">
       <formula>$BK$27</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE28:BJ28">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="7" operator="greaterThan">
       <formula>$BK$28</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE29:BJ29">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="6" operator="greaterThan">
       <formula>$BK$29</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE30:BJ30">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="greaterThan">
       <formula>$BK$30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE31:BJ31">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="4" operator="greaterThan">
       <formula>$BK$31</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE32:BJ32">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="greaterThan">
       <formula>$BK$32</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE33:BJ33">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="greaterThan">
       <formula>$BK$33</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE34:BJ34">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="1" operator="greaterThan">
       <formula>$BK$34</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7332,4 +7741,2951 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282C0AF7-2258-4A1B-A4FE-A5B0AD24C85B}">
+  <dimension ref="A3:AH79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="68" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.77734375" customWidth="1"/>
+    <col min="5" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="9" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="9" customWidth="1"/>
+    <col min="16" max="16" width="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9" customWidth="1"/>
+    <col min="19" max="25" width="9.21875" customWidth="1"/>
+    <col min="30" max="30" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19">
+        <v>3412</v>
+      </c>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="19">
+        <f>AVERAGE(0.004, 0.002, 0.003, 0.002, 0.002, 0.002, 0.002, 0.003)</f>
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19">
+        <v>0.31560575000000002</v>
+      </c>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="N9" s="19">
+        <v>48.203209999999999</v>
+      </c>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="19">
+        <v>0</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19">
+        <v>6.4424999999999997E-4</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+    </row>
+    <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="S12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="U12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="X12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.39739999999999998</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0.43590000000000001</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0.476190476190476</v>
+      </c>
+      <c r="H13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="5">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0.625</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0.63749999999999996</v>
+      </c>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="5"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="14">
+        <f>AVERAGE(B13:Y13)</f>
+        <v>0.52470122100122085</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.70240000000000002</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.55952380952380898</v>
+      </c>
+      <c r="F14" s="6">
+        <v>0.54761904761904701</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0.54444444444444395</v>
+      </c>
+      <c r="H14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="5">
+        <v>0.69769999999999999</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0.66279999999999994</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0.58140000000000003</v>
+      </c>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="14">
+        <f t="shared" ref="Z14:Z20" si="0">AVERAGE(B14:Y14)</f>
+        <v>0.60033192239858879</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.55130000000000001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0.60260000000000002</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.6341</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.512820512820512</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="5"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="5">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="14">
+        <f t="shared" si="0"/>
+        <v>0.58476894586894579</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.53849999999999998</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0.54879999999999995</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.82051282051282004</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0.67948717948717896</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0.68292682926829196</v>
+      </c>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="5">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="14">
+        <f t="shared" si="0"/>
+        <v>0.65541409214092117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.65380000000000005</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0.61539999999999995</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.55128205128205099</v>
+      </c>
+      <c r="F17" s="6">
+        <v>0.57692307692307598</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="5"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0.6875</v>
+      </c>
+      <c r="P17" s="7">
+        <v>0.625</v>
+      </c>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="14">
+        <f t="shared" si="0"/>
+        <v>0.60321168091168076</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>31</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.70509999999999995</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.71430000000000005</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.67948717948717896</v>
+      </c>
+      <c r="F18" s="6">
+        <v>0.57692307692307598</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0.55952380952380898</v>
+      </c>
+      <c r="H18" s="5"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="5">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="P18" s="7">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="14">
+        <f t="shared" si="0"/>
+        <v>0.63625934065934053</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>34</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.91890000000000005</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0.97370000000000001</v>
+      </c>
+      <c r="E19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.59210526315789402</v>
+      </c>
+      <c r="H19" s="5"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="5">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="P19" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="14">
+        <f t="shared" si="0"/>
+        <v>0.70863391812865484</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>39</v>
+      </c>
+      <c r="B20" s="5">
+        <v>0.83779999999999999</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.68920000000000003</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.47297297297297197</v>
+      </c>
+      <c r="F20" s="6">
+        <v>0.47297297297297197</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0.47368421052631499</v>
+      </c>
+      <c r="H20" s="5"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="5">
+        <v>0.74670000000000003</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0.68</v>
+      </c>
+      <c r="P20" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="14">
+        <f t="shared" si="0"/>
+        <v>0.64913668405247316</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="11">
+        <f t="shared" ref="B21:D21" si="1">AVERAGE(B13:B20)</f>
+        <v>0.67756249999999996</v>
+      </c>
+      <c r="C21" s="12">
+        <f t="shared" si="1"/>
+        <v>0.63783750000000006</v>
+      </c>
+      <c r="D21" s="13">
+        <f t="shared" si="1"/>
+        <v>0.66485000000000005</v>
+      </c>
+      <c r="E21" s="11">
+        <f>AVERAGE(E13:E20)</f>
+        <v>0.5761774824274819</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" ref="F21:M21" si="2">AVERAGE(F13:F20)</f>
+        <v>0.54424066924066872</v>
+      </c>
+      <c r="G21" s="13">
+        <f t="shared" si="2"/>
+        <v>0.54110937913890378</v>
+      </c>
+      <c r="H21" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K21" s="11" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L21" s="12" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M21" s="13" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N21" s="11">
+        <f>AVERAGE(N13:N20)</f>
+        <v>0.66444999999999987</v>
+      </c>
+      <c r="O21" s="12">
+        <f t="shared" ref="O21:Y21" si="3">AVERAGE(O13:O20)</f>
+        <v>0.66254999999999997</v>
+      </c>
+      <c r="P21" s="13">
+        <f t="shared" si="3"/>
+        <v>0.61398749999999991</v>
+      </c>
+      <c r="Q21" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S21" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T21" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U21" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V21" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W21" s="11" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X21" s="12" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y21" s="13" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="L25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1.5100000000000001E-2</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4">
+        <f>AVERAGE(49.6775,
+44.6618,
+44.7039,
+44.5641,
+42.8841,
+43.8803,
+44.3027,
+43.2932,
+47.9373,
+42.8518,
+47.9925,
+42.3819,
+47.9918,
+43.5386,
+42.9155,
+44.9577,
+48.3074,
+48.5917,
+42.9123,
+48.0693,
+44.4611,
+43.3843,
+44.0933,
+40.5709,
+42.331)</f>
+        <v>44.850239999999992</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="Z31" s="4">
+        <v>682.024</v>
+      </c>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+      <c r="AF31" s="4"/>
+      <c r="AG31" s="4"/>
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="J32" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="Z32" s="4">
+        <v>2.3800000000000002E-3</v>
+      </c>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+      <c r="AF32" s="4"/>
+      <c r="AG32" s="4"/>
+    </row>
+    <row r="33" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="K33" s="18"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="O33" s="18"/>
+      <c r="P33" s="18"/>
+      <c r="Q33" s="18"/>
+      <c r="R33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="S33" s="18"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="18"/>
+      <c r="V33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="18"/>
+      <c r="X33" s="18"/>
+      <c r="Y33" s="18"/>
+      <c r="Z33" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA33" s="18"/>
+      <c r="AB33" s="18"/>
+      <c r="AC33" s="18"/>
+      <c r="AD33" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="18"/>
+      <c r="AG33" s="18"/>
+      <c r="AH33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="S34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="T34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="U34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="V34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE34" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG34" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35" s="5">
+        <v>0.4592</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0.50339999999999996</v>
+      </c>
+      <c r="E35" s="7">
+        <v>0.51329999999999998</v>
+      </c>
+      <c r="F35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="6"/>
+      <c r="AB35" s="6"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="6"/>
+      <c r="AF35" s="6"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="14">
+        <f>AVERAGE(B35:AG35)</f>
+        <v>0.49696249999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" s="5">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0.52080000000000004</v>
+      </c>
+      <c r="E36" s="7">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="6"/>
+      <c r="AB36" s="6"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="6"/>
+      <c r="AF36" s="6"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="14">
+        <f t="shared" ref="AH36:AH59" si="4">AVERAGE(B36:AG36)</f>
+        <v>0.51902499999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>3</v>
+      </c>
+      <c r="B37" s="5">
+        <v>0.48609999999999998</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="E37" s="7">
+        <v>0.44669999999999999</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="5"/>
+      <c r="AE37" s="6"/>
+      <c r="AF37" s="6"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="14">
+        <f t="shared" si="4"/>
+        <v>0.49424999999999997</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5">
+        <v>0.4894</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0.55669999999999997</v>
+      </c>
+      <c r="E38" s="7">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.54259999999999997</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0.44679999999999997</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="5"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="14">
+        <f t="shared" si="4"/>
+        <v>0.51729999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39" s="5">
+        <v>0.63829999999999998</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0.52129999999999999</v>
+      </c>
+      <c r="E39" s="7">
+        <v>0.51180000000000003</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0.4894</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0.4894</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0.50509999999999999</v>
+      </c>
+      <c r="J39" s="5"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="5"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="5"/>
+      <c r="AE39" s="6"/>
+      <c r="AF39" s="6"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="14">
+        <f t="shared" si="4"/>
+        <v>0.52339999999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6</v>
+      </c>
+      <c r="B40" s="5">
+        <v>0.4803</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0.44090000000000001</v>
+      </c>
+      <c r="E40" s="7">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="F40" s="2">
+        <v>0.55910000000000004</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="J40" s="5"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="5"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="5"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="5"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="5"/>
+      <c r="AE40" s="6"/>
+      <c r="AF40" s="6"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50163749999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>7</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.45490000000000003</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0.48959999999999998</v>
+      </c>
+      <c r="E41" s="7">
+        <v>0.4904</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="2">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="H41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J41" s="5"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="5"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="5"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="5"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="5"/>
+      <c r="AE41" s="6"/>
+      <c r="AF41" s="6"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="14">
+        <f t="shared" si="4"/>
+        <v>0.49706249999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>8</v>
+      </c>
+      <c r="B42" s="5">
+        <v>0.50180000000000002</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0.4632</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="E42" s="7">
+        <v>0.48480000000000001</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.51580000000000004</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="J42" s="5"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="5"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="5"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="5"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="5"/>
+      <c r="AE42" s="6"/>
+      <c r="AF42" s="6"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50702499999999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" s="5">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0.51890000000000003</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="E43" s="7">
+        <v>0.49840000000000001</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="G43" s="2">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="H43" s="2">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="I43" s="2">
+        <v>0.49519999999999997</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="5"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="5"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="5"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="5"/>
+      <c r="AE43" s="6"/>
+      <c r="AF43" s="6"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="14">
+        <f t="shared" si="4"/>
+        <v>0.500475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10</v>
+      </c>
+      <c r="B44" s="5">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="E44" s="7">
+        <v>0.49</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0.47370000000000001</v>
+      </c>
+      <c r="G44" s="2">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="H44" s="2">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="I44" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="J44" s="5"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="6"/>
+      <c r="AF44" s="6"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="14">
+        <f t="shared" si="4"/>
+        <v>0.49575000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.49659999999999999</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="E45" s="7">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="G45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H45" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I45" s="2">
+        <v>0.51959999999999995</v>
+      </c>
+      <c r="J45" s="5"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="6"/>
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50659999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>12</v>
+      </c>
+      <c r="B46" s="5">
+        <v>0.48720000000000002</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0.4945</v>
+      </c>
+      <c r="E46" s="7">
+        <v>0.52839999999999998</v>
+      </c>
+      <c r="F46" s="2">
+        <v>0.4945</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.4945</v>
+      </c>
+      <c r="H46" s="2">
+        <v>0.4945</v>
+      </c>
+      <c r="I46" s="2">
+        <v>0.47870000000000001</v>
+      </c>
+      <c r="J46" s="5"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="5"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="5"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="5"/>
+      <c r="AE46" s="6"/>
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="14">
+        <f t="shared" si="4"/>
+        <v>0.49631249999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" s="5">
+        <v>0.4914</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0.50519999999999998</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="E47" s="7">
+        <v>0.51160000000000005</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="H47" s="2">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="I47" s="2">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="J47" s="5"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="6"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50173749999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>14</v>
+      </c>
+      <c r="B48" s="5">
+        <v>0.53680000000000005</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0.49120000000000003</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0.52629999999999999</v>
+      </c>
+      <c r="E48" s="7">
+        <v>0.49159999999999998</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="H48" s="2">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="I48" s="2">
+        <v>0.47470000000000001</v>
+      </c>
+      <c r="J48" s="5"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="6"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50191249999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>15</v>
+      </c>
+      <c r="B49" s="5">
+        <v>0.51060000000000005</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0.53190000000000004</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0.4929</v>
+      </c>
+      <c r="E49" s="7">
+        <v>0.4914</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0.45739999999999997</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.4894</v>
+      </c>
+      <c r="H49" s="2">
+        <v>0.4894</v>
+      </c>
+      <c r="I49" s="2">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="J49" s="5"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="6"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="14">
+        <f t="shared" si="4"/>
+        <v>0.49343749999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>16</v>
+      </c>
+      <c r="B50" s="5">
+        <v>0.50690000000000002</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0.434</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0.48609999999999998</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0.48370000000000002</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H50" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I50" s="2">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="J50" s="5"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="5"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="5"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="5"/>
+      <c r="AE50" s="6"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="14">
+        <f t="shared" si="4"/>
+        <v>0.49006250000000007</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>17</v>
+      </c>
+      <c r="B51" s="5">
+        <v>0.4592</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0.48980000000000001</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0.53739999999999999</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0.53139999999999998</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="G51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H51" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I51" s="2">
+        <v>0.48509999999999998</v>
+      </c>
+      <c r="J51" s="5"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="5"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="5"/>
+      <c r="AE51" s="6"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50163750000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>18</v>
+      </c>
+      <c r="B52" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0.50680000000000003</v>
+      </c>
+      <c r="E52" s="7">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.46939999999999998</v>
+      </c>
+      <c r="H52" s="2">
+        <v>0.53059999999999996</v>
+      </c>
+      <c r="I52" s="2">
+        <v>0.50980000000000003</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="5"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="5"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="5"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="5"/>
+      <c r="AE52" s="6"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50788750000000005</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>19</v>
+      </c>
+      <c r="B53" s="5">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="C53" s="6">
+        <v>0.49819999999999998</v>
+      </c>
+      <c r="D53" s="6">
+        <v>0.47310000000000002</v>
+      </c>
+      <c r="E53" s="7">
+        <v>0.50170000000000003</v>
+      </c>
+      <c r="F53" s="2">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="H53" s="2">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="I53" s="2">
+        <v>0.48449999999999999</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="5"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="5"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="5"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="6"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="14">
+        <f t="shared" si="4"/>
+        <v>0.4937875000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>20</v>
+      </c>
+      <c r="B54" s="5">
+        <v>0.53259999999999996</v>
+      </c>
+      <c r="C54" s="6">
+        <v>0.46739999999999998</v>
+      </c>
+      <c r="D54" s="6">
+        <v>0.58079999999999998</v>
+      </c>
+      <c r="E54" s="7">
+        <v>0.4884</v>
+      </c>
+      <c r="F54" s="2">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="H54" s="2">
+        <v>0.49480000000000002</v>
+      </c>
+      <c r="I54" s="2">
+        <v>0.51490000000000002</v>
+      </c>
+      <c r="J54" s="5"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="6"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="14">
+        <f t="shared" si="4"/>
+        <v>0.508575</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>21</v>
+      </c>
+      <c r="B55" s="5">
+        <v>0.50349999999999995</v>
+      </c>
+      <c r="C55" s="6">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="D55" s="6">
+        <v>0.54510000000000003</v>
+      </c>
+      <c r="E55" s="7">
+        <v>0.51359999999999995</v>
+      </c>
+      <c r="F55" s="2">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="H55" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I55" s="2">
+        <v>0.51019999999999999</v>
+      </c>
+      <c r="J55" s="5"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="6"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="14">
+        <f t="shared" si="4"/>
+        <v>0.51554999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>22</v>
+      </c>
+      <c r="B56" s="5">
+        <v>0.47020000000000001</v>
+      </c>
+      <c r="C56" s="6">
+        <v>0.49469999999999997</v>
+      </c>
+      <c r="D56" s="6">
+        <v>0.52280000000000004</v>
+      </c>
+      <c r="E56" s="7">
+        <v>0.49669999999999997</v>
+      </c>
+      <c r="F56" s="2">
+        <v>0.5474</v>
+      </c>
+      <c r="G56" s="2">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="H56" s="2">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="I56" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J56" s="5"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="5"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="5"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="6"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50530000000000008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>23</v>
+      </c>
+      <c r="B57" s="5">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="C57" s="6">
+        <v>0.45140000000000002</v>
+      </c>
+      <c r="D57" s="6">
+        <v>0.51039999999999996</v>
+      </c>
+      <c r="E57" s="7">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="F57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I57" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J57" s="5"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="5"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="5"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="6"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50306249999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58" s="5">
+        <v>0.51549999999999996</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0.53490000000000004</v>
+      </c>
+      <c r="D58" s="6">
+        <v>0.50390000000000001</v>
+      </c>
+      <c r="E58" s="7">
+        <v>0.44800000000000001</v>
+      </c>
+      <c r="F58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H58" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I58" s="2">
+        <v>0.50539999999999996</v>
+      </c>
+      <c r="J58" s="5"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="5"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="6"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="14">
+        <f t="shared" si="4"/>
+        <v>0.50096249999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59" s="5">
+        <v>0.58240000000000003</v>
+      </c>
+      <c r="C59" s="6">
+        <v>0.51280000000000003</v>
+      </c>
+      <c r="D59" s="6">
+        <v>0.52010000000000001</v>
+      </c>
+      <c r="E59" s="7">
+        <v>0.54420000000000002</v>
+      </c>
+      <c r="F59" s="2">
+        <v>0.4945</v>
+      </c>
+      <c r="G59" s="2">
+        <v>0.4945</v>
+      </c>
+      <c r="H59" s="2">
+        <v>0.4945</v>
+      </c>
+      <c r="I59" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J59" s="5"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="5"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="5"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="5"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="6"/>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="14">
+        <f t="shared" si="4"/>
+        <v>0.51787500000000009</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="15">
+        <f>AVERAGE(B35:B59)</f>
+        <v>0.50793199999999994</v>
+      </c>
+      <c r="C60" s="16">
+        <f t="shared" ref="C60:Y60" si="5">AVERAGE(C35:C59)</f>
+        <v>0.50013600000000002</v>
+      </c>
+      <c r="D60" s="16">
+        <f t="shared" si="5"/>
+        <v>0.51517200000000007</v>
+      </c>
+      <c r="E60" s="17">
+        <f t="shared" si="5"/>
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="F60" s="15">
+        <f t="shared" si="5"/>
+        <v>0.50608399999999998</v>
+      </c>
+      <c r="G60" s="16">
+        <f t="shared" si="5"/>
+        <v>0.49814000000000003</v>
+      </c>
+      <c r="H60" s="16">
+        <f t="shared" si="5"/>
+        <v>0.49759999999999999</v>
+      </c>
+      <c r="I60" s="17">
+        <f t="shared" si="5"/>
+        <v>0.50196399999999997</v>
+      </c>
+      <c r="J60" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M60" s="17" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N60" s="15" t="e">
+        <f>AVERAGE(N35:N59)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q60" s="17" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R60" s="15" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U60" s="17" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X60" s="16" t="e">
+        <f>AVERAGE(X35:X59)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y60" s="16" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z60" s="15" t="e">
+        <f>AVERAGE(Z36:Z59)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA60" s="16" t="e">
+        <f t="shared" ref="AA60:AG60" si="6">AVERAGE(AA35:AA59)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB60" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC60" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD60" s="15" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE60" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AF60" s="16" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AG60" s="17" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="C61" s="14">
+        <f>AVERAGE(B60:E60)</f>
+        <v>0.50685999999999998</v>
+      </c>
+      <c r="G61" s="14">
+        <f>AVERAGE(F60:I60)</f>
+        <v>0.50094700000000003</v>
+      </c>
+      <c r="K61" s="14" t="e">
+        <f>AVERAGE(J60:M60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="14" t="e">
+        <f>AVERAGE(N60:Q60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S61" s="14" t="e">
+        <f>AVERAGE(R60:U60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W61" s="14" t="e">
+        <f>AVERAGE(V60:Y60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA61" s="14" t="e">
+        <f>AVERAGE(Z60:AC60)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE61" s="14" t="e">
+        <f>AVERAGE(AD60:AG60)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.3">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="19"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="19"/>
+      <c r="M79" s="19"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="19"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="19"/>
+      <c r="R79" s="19"/>
+      <c r="S79" s="19"/>
+      <c r="T79" s="19"/>
+      <c r="U79" s="19"/>
+      <c r="V79" s="19"/>
+      <c r="W79" s="19"/>
+      <c r="X79" s="19"/>
+      <c r="Y79" s="19"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+      <c r="AE79" s="4"/>
+      <c r="AF79" s="4"/>
+      <c r="AG79" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="43">
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="Z33:AC33"/>
+    <mergeCell ref="AD33:AG33"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="V79:Y79"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:Q79"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B13:Y13">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
+      <formula>$Z$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:Y14">
+    <cfRule type="cellIs" dxfId="34" priority="9" operator="greaterThan">
+      <formula>$Z$14</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:Y15">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
+      <formula>$Z$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:Y16">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
+      <formula>$Z$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:Y17">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
+      <formula>$Z$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
+      <formula>"59.38%$Z$15"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:Y18">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
+      <formula>$Z$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
+      <formula>"$Z$16"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:Y19">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+      <formula>$Z$19</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:Y20">
+    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+      <formula>$Z$20</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:AG35">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="greaterThan">
+      <formula>$AH$35</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:AG36">
+    <cfRule type="cellIs" dxfId="24" priority="37" operator="greaterThan">
+      <formula>$AH$36</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:AG37">
+    <cfRule type="cellIs" dxfId="23" priority="36" operator="greaterThan">
+      <formula>$AH$37</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:AG38">
+    <cfRule type="cellIs" dxfId="22" priority="35" operator="greaterThan">
+      <formula>$AH$38</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:AG39">
+    <cfRule type="cellIs" dxfId="21" priority="34" operator="greaterThan">
+      <formula>0.5692</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:AG40">
+    <cfRule type="cellIs" dxfId="20" priority="33" operator="greaterThan">
+      <formula>$AH$40</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B41:AG41">
+    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
+      <formula>$AH$41</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B42:AG42">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="greaterThan">
+      <formula>0.5588</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B43:AG43">
+    <cfRule type="cellIs" dxfId="17" priority="30" operator="greaterThan">
+      <formula>$AH$43</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44:AG44">
+    <cfRule type="cellIs" dxfId="16" priority="29" operator="greaterThan">
+      <formula>$AH$44</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45:AG45">
+    <cfRule type="cellIs" dxfId="15" priority="28" operator="greaterThan">
+      <formula>$AH$45</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:AG46">
+    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
+      <formula>$AH$46</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="27" operator="greaterThan">
+      <formula>"5$BK$21"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:AG47">
+    <cfRule type="cellIs" dxfId="12" priority="25" operator="greaterThan">
+      <formula>$AH$47</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:AG48">
+    <cfRule type="cellIs" dxfId="11" priority="24" operator="greaterThan">
+      <formula>$AH$48</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:AG49">
+    <cfRule type="cellIs" dxfId="10" priority="23" operator="greaterThan">
+      <formula>$AH$49</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B50:AG50">
+    <cfRule type="cellIs" dxfId="9" priority="22" operator="greaterThan">
+      <formula>$AH$50</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B51:AG51">
+    <cfRule type="cellIs" dxfId="8" priority="21" operator="greaterThan">
+      <formula>$AH$51</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B52:AG52">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="greaterThan">
+      <formula>$AH$52</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53:AG53">
+    <cfRule type="cellIs" dxfId="6" priority="19" operator="greaterThan">
+      <formula>$AH$53</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B54:AG54">
+    <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
+      <formula>$AH$54</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B55:AG55">
+    <cfRule type="cellIs" dxfId="4" priority="17" operator="greaterThan">
+      <formula>$AH$55</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:AG56">
+    <cfRule type="cellIs" dxfId="3" priority="16" operator="greaterThan">
+      <formula>$AH$56</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:AG57">
+    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
+      <formula>$AH$57</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:AG58">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+      <formula>$AH$58</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:AG59">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
+      <formula>$AH$59</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N13:N14 Q13:R20 O13:P13 S14:Y20 E13:G20 K13:M20" xr:uid="{A81F32AE-EECD-4A1E-9CC5-9AA7EC84EA19}">
+      <formula1>0</formula1>
+      <formula2>100</formula2>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Accuracies.xlsx
+++ b/Accuracies.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <workbookPr showObjects="none" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uceerjp\Desktop\PhD\Year 2\DeepLearning-on-ALS-MI-Data\Graphs\Understanding Stability in Graphical Representation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC929B2-0191-440B-AFBA-948028590225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CAB43B-A96C-44EA-B280-D5B9A80F6360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28860" yWindow="0" windowWidth="28965" windowHeight="15585" activeTab="2" xr2:uid="{44BD2607-64BA-4B1D-B8EA-B15CFDCAF805}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{44BD2607-64BA-4B1D-B8EA-B15CFDCAF805}"/>
   </bookViews>
   <sheets>
     <sheet name="Run 1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="30">
   <si>
     <t>Patient</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Average Train Time per Subject per Fold Pair (s)</t>
   </si>
   <si>
-    <t>1.28GB</t>
-  </si>
-  <si>
     <t>RAM (GB)</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
   </si>
   <si>
     <t>Model Memory (MB)</t>
-  </si>
-  <si>
-    <t>0.01MB</t>
   </si>
 </sst>
 </file>
@@ -281,13 +275,13 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2750,8 +2744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9C7F1FC-1F61-492A-89D7-E7185DF08951}">
   <dimension ref="A3:BK68"/>
   <sheetViews>
-    <sheetView topLeftCell="I2" zoomScale="71" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7:P7"/>
+    <sheetView zoomScale="71" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2790,69 +2784,69 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="18">
         <f>AVERAGE(0.004, 0.002, 0.003, 0.002, 0.002, 0.002, 0.002, 0.003)</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19">
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18">
         <v>0.31560575000000002</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18">
         <f>AVERAGE(65.9997, 70.7295, 65.9817, 70.9299, 70.0629, 69.1348, 65.8789, 66.5851, 66.2467, 70.182, 65.5748, 69.4074, 69.4422, 69.2278, 66.2069, 66.6355, 66.3827, 70.2755, 71.5449, 69.437, 68.9615, 69.0338, 69.437)</f>
         <v>68.40426956521739</v>
       </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18">
         <f>AVERAGE(71.0671, 68.9061, 67.057, 73.4368, 72.6158, 72.6665, 67.2654, 67.3336, 67.0413, 68.9938, 69.3866, 69.1474, 68.6321, 68.368, 70.2027, 80.0363, 67.9009, 71.3562, 63.5618, 64.7515, 64.5774, 64.3539, 64.1177, 70.0908)</f>
         <v>68.86944583333333</v>
       </c>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19">
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18">
         <f>AVERAGE(64.3383, 64.9885, 65.1879, 70.4244, 69.4368, 70.7153, 64.5491, 64.5018, 63.9125, 68.2774, 66.2996, 67.6003, 67.4875, 67.6287, 67.3547, 66.8374, 67.5192, 66.9178, 61.1148, 61.403, 61.0639, 63.6442, 63.6956, 63.2121)</f>
         <v>65.754616666666678</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19">
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18">
         <f>AVERAGE(72.0977, 74.1253, 67.7548, 68.7456, 69.1855, 68.3395, 65.6189, 64.98, 69.5215, 73.446, 67.4633, 68.9, 68.2656, 67.8983, 77.3681, 74.0519, 67.5916, 68.7083, 68.3478, 67.7037, 64.8101, 64.8788)</f>
         <v>69.081922727272726</v>
       </c>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19">
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18">
         <v>375.54</v>
       </c>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="19">
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18">
         <v>366.15</v>
       </c>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
       <c r="AD6" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AE6" s="18">
         <v>1.5100000000000001E-2</v>
       </c>
-      <c r="AF6" s="19"/>
-      <c r="AG6" s="19"/>
-      <c r="AH6" s="19"/>
-      <c r="AM6" s="19"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="19"/>
-      <c r="AP6" s="19"/>
-      <c r="AQ6" s="19"/>
-      <c r="AR6" s="19"/>
-      <c r="AS6" s="19"/>
-      <c r="AT6" s="19"/>
-      <c r="AU6" s="19">
+      <c r="AF6" s="18"/>
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="18"/>
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="18"/>
+      <c r="AO6" s="18"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="18"/>
+      <c r="AR6" s="18"/>
+      <c r="AS6" s="18"/>
+      <c r="AT6" s="18"/>
+      <c r="AU6" s="18">
         <f>AVERAGE(49.6775,
 44.6618,
 44.7039,
@@ -2880,204 +2874,204 @@
 42.331)</f>
         <v>44.850239999999992</v>
       </c>
-      <c r="AV6" s="19"/>
-      <c r="AW6" s="19"/>
-      <c r="AX6" s="19"/>
-      <c r="BC6" s="19">
+      <c r="AV6" s="18"/>
+      <c r="AW6" s="18"/>
+      <c r="AX6" s="18"/>
+      <c r="BC6" s="18">
         <v>682.024</v>
       </c>
-      <c r="BD6" s="19"/>
-      <c r="BE6" s="19"/>
-      <c r="BF6" s="19"/>
-      <c r="BG6" s="19"/>
-      <c r="BH6" s="19"/>
-      <c r="BI6" s="19"/>
-      <c r="BJ6" s="19"/>
+      <c r="BD6" s="18"/>
+      <c r="BE6" s="18"/>
+      <c r="BF6" s="18"/>
+      <c r="BG6" s="18"/>
+      <c r="BH6" s="18"/>
+      <c r="BI6" s="18"/>
+      <c r="BJ6" s="18"/>
     </row>
     <row r="7" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="18">
         <v>0</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19">
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18">
         <v>6.4424999999999997E-4</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18">
         <f>AVERAGE(0.0327, 0.0347, 0.0328, 0.0352, 0.0345, 0.0343, 0.0324, 0.0329, 0.0331, 0.0345, 0.0328, 0.0346, 0.0342, 0.0343, 0.0329, 0.0329, 0.0333, 0.0349, 0.0357, 0.0343, 0.0342, 0.034, 0.0343)</f>
         <v>3.3891304347826098E-2</v>
       </c>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18">
         <f>AVERAGE(0.0356, 0.0347, 0.0335, 0.0363, 0.036, 0.0359, 0.0338, 0.0337, 0.0335, 0.0344, 0.0347, 0.0345, 0.0343, 0.0338, 0.0351, 0.0389, 0.0331, 0.0357, 0.0317, 0.0323, 0.0322, 0.0317, 0.032, 0.0347)</f>
         <v>3.4254166666666662E-2</v>
       </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19">
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18">
         <f>AVERAGE(0.0322, 0.0327, 0.0335, 0.0353, 0.0352, 0.0362, 0.0327, 0.0324, 0.0318, 0.0337, 0.0328, 0.0335, 0.0336, 0.0334, 0.0333, 0.0341, 0.0341, 0.0341, 0.0303, 0.0316, 0.0308, 0.0316, 0.0315, 0.0312)</f>
         <v>3.2983333333333337E-2</v>
       </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19">
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18">
         <f>AVERAGE(0.0356, 0.0368, 0.034, 0.0343, 0.0344, 0.0339, 0.0326, 0.0323, 0.0349, 0.0364, 0.0338, 0.0346, 0.0338, 0.0334, 0.0391, 0.0369, 0.0337, 0.0343, 0.034, 0.0335, 0.0323, 0.0324)</f>
         <v>3.4409090909090903E-2</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19">
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18">
         <v>1.9009999999999999E-3</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-      <c r="W7" s="19">
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18">
         <v>1.696E-3</v>
       </c>
-      <c r="X7" s="19"/>
-      <c r="Y7" s="19"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
       <c r="AD7" t="s">
         <v>23</v>
       </c>
-      <c r="AE7" s="19">
+      <c r="AE7" s="18">
         <v>1E-3</v>
       </c>
-      <c r="AF7" s="19"/>
-      <c r="AG7" s="19"/>
-      <c r="AH7" s="19"/>
-      <c r="AM7" s="19">
+      <c r="AF7" s="18"/>
+      <c r="AG7" s="18"/>
+      <c r="AH7" s="18"/>
+      <c r="AM7" s="18">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AN7" s="19"/>
-      <c r="AO7" s="19"/>
-      <c r="AP7" s="19"/>
-      <c r="AQ7" s="19">
+      <c r="AN7" s="18"/>
+      <c r="AO7" s="18"/>
+      <c r="AP7" s="18"/>
+      <c r="AQ7" s="18">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AR7" s="19"/>
-      <c r="AS7" s="19"/>
-      <c r="AT7" s="19"/>
-      <c r="AU7" s="19">
+      <c r="AR7" s="18"/>
+      <c r="AS7" s="18"/>
+      <c r="AT7" s="18"/>
+      <c r="AU7" s="18">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="AV7" s="19"/>
-      <c r="AW7" s="19"/>
-      <c r="AX7" s="19"/>
-      <c r="BC7" s="19">
+      <c r="AV7" s="18"/>
+      <c r="AW7" s="18"/>
+      <c r="AX7" s="18"/>
+      <c r="BC7" s="18">
         <v>2.3800000000000002E-3</v>
       </c>
-      <c r="BD7" s="19"/>
-      <c r="BE7" s="19"/>
-      <c r="BF7" s="19"/>
-      <c r="BG7" s="19"/>
-      <c r="BH7" s="19"/>
-      <c r="BI7" s="19"/>
-      <c r="BJ7" s="19"/>
+      <c r="BD7" s="18"/>
+      <c r="BE7" s="18"/>
+      <c r="BF7" s="18"/>
+      <c r="BG7" s="18"/>
+      <c r="BH7" s="18"/>
+      <c r="BI7" s="18"/>
+      <c r="BJ7" s="18"/>
     </row>
     <row r="8" spans="1:63" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="20" t="s">
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20" t="s">
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20" t="s">
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20" t="s">
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="19" t="s">
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19" t="s">
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="18"/>
       <c r="Z8" t="s">
         <v>2</v>
       </c>
       <c r="AD8" t="s">
         <v>0</v>
       </c>
-      <c r="AE8" s="19" t="s">
+      <c r="AE8" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19" t="s">
+      <c r="AF8" s="18"/>
+      <c r="AG8" s="18"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19" t="s">
+      <c r="AJ8" s="18"/>
+      <c r="AK8" s="18"/>
+      <c r="AL8" s="18"/>
+      <c r="AM8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19" t="s">
+      <c r="AN8" s="18"/>
+      <c r="AO8" s="18"/>
+      <c r="AP8" s="18"/>
+      <c r="AQ8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="19" t="s">
+      <c r="AR8" s="18"/>
+      <c r="AS8" s="18"/>
+      <c r="AT8" s="18"/>
+      <c r="AU8" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AV8" s="19"/>
-      <c r="AW8" s="19"/>
-      <c r="AX8" s="19"/>
-      <c r="AY8" s="19" t="s">
+      <c r="AV8" s="18"/>
+      <c r="AW8" s="18"/>
+      <c r="AX8" s="18"/>
+      <c r="AY8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AZ8" s="19"/>
-      <c r="BA8" s="19"/>
-      <c r="BB8" s="19"/>
-      <c r="BC8" s="18" t="s">
+      <c r="AZ8" s="18"/>
+      <c r="BA8" s="18"/>
+      <c r="BB8" s="18"/>
+      <c r="BC8" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="BD8" s="18"/>
-      <c r="BE8" s="18"/>
-      <c r="BF8" s="18"/>
-      <c r="BG8" s="18" t="s">
+      <c r="BD8" s="20"/>
+      <c r="BE8" s="20"/>
+      <c r="BF8" s="20"/>
+      <c r="BG8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="BH8" s="18"/>
-      <c r="BI8" s="18"/>
-      <c r="BJ8" s="18"/>
+      <c r="BH8" s="20"/>
+      <c r="BI8" s="20"/>
+      <c r="BJ8" s="20"/>
       <c r="BK8" t="s">
         <v>2</v>
       </c>
@@ -5170,24 +5164,24 @@
       </c>
     </row>
     <row r="21" spans="1:63" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19"/>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
-      <c r="R21" s="19"/>
-      <c r="S21" s="19"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -5948,46 +5942,46 @@
       <c r="A28" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19" t="s">
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19" t="s">
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19" t="s">
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19" t="s">
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19" t="s">
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19" t="s">
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
       <c r="AD28">
         <v>19</v>
       </c>
@@ -7117,42 +7111,42 @@
       <c r="AD41" t="s">
         <v>0</v>
       </c>
-      <c r="AE41" s="19" t="s">
+      <c r="AE41" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="AF41" s="19"/>
-      <c r="AG41" s="19"/>
-      <c r="AH41" s="19"/>
-      <c r="AI41" s="19" t="s">
+      <c r="AF41" s="18"/>
+      <c r="AG41" s="18"/>
+      <c r="AH41" s="18"/>
+      <c r="AI41" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="AJ41" s="19"/>
-      <c r="AK41" s="19"/>
-      <c r="AL41" s="19"/>
-      <c r="AM41" s="19" t="s">
+      <c r="AJ41" s="18"/>
+      <c r="AK41" s="18"/>
+      <c r="AL41" s="18"/>
+      <c r="AM41" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="19"/>
-      <c r="AO41" s="19"/>
-      <c r="AP41" s="19"/>
-      <c r="AQ41" s="19" t="s">
+      <c r="AN41" s="18"/>
+      <c r="AO41" s="18"/>
+      <c r="AP41" s="18"/>
+      <c r="AQ41" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AR41" s="19"/>
-      <c r="AS41" s="19"/>
-      <c r="AT41" s="19"/>
-      <c r="AU41" s="19" t="s">
+      <c r="AR41" s="18"/>
+      <c r="AS41" s="18"/>
+      <c r="AT41" s="18"/>
+      <c r="AU41" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="AV41" s="19"/>
-      <c r="AW41" s="19"/>
-      <c r="AX41" s="19"/>
-      <c r="AY41" s="19" t="s">
+      <c r="AV41" s="18"/>
+      <c r="AW41" s="18"/>
+      <c r="AX41" s="18"/>
+      <c r="AY41" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="AZ41" s="19"/>
-      <c r="BA41" s="19"/>
-      <c r="BB41" s="19"/>
+      <c r="AZ41" s="18"/>
+      <c r="BA41" s="18"/>
+      <c r="BB41" s="18"/>
       <c r="BC41" s="4"/>
       <c r="BD41" s="4"/>
       <c r="BE41" s="4"/>
@@ -7500,54 +7494,6 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="BG7:BJ7"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="Q6:S6"/>
-    <mergeCell ref="Q7:S7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="N6:P6"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:P28"/>
-    <mergeCell ref="AM8:AP8"/>
-    <mergeCell ref="AQ8:AT8"/>
-    <mergeCell ref="AU8:AX8"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="AE41:AH41"/>
-    <mergeCell ref="AI41:AL41"/>
-    <mergeCell ref="AM41:AP41"/>
-    <mergeCell ref="AQ41:AT41"/>
-    <mergeCell ref="AU41:AX41"/>
-    <mergeCell ref="AY41:BB41"/>
-    <mergeCell ref="AU7:AX7"/>
-    <mergeCell ref="AU6:AX6"/>
-    <mergeCell ref="AQ7:AT7"/>
-    <mergeCell ref="AQ6:AT6"/>
-    <mergeCell ref="AY8:BB8"/>
     <mergeCell ref="BC8:BF8"/>
     <mergeCell ref="BC7:BF7"/>
     <mergeCell ref="BC6:BF6"/>
@@ -7564,6 +7510,54 @@
     <mergeCell ref="AE7:AH7"/>
     <mergeCell ref="AE8:AH8"/>
     <mergeCell ref="AI8:AL8"/>
+    <mergeCell ref="AY41:BB41"/>
+    <mergeCell ref="AU7:AX7"/>
+    <mergeCell ref="AU6:AX6"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="AY8:BB8"/>
+    <mergeCell ref="AE41:AH41"/>
+    <mergeCell ref="AI41:AL41"/>
+    <mergeCell ref="AM41:AP41"/>
+    <mergeCell ref="AQ41:AT41"/>
+    <mergeCell ref="AU41:AX41"/>
+    <mergeCell ref="AM8:AP8"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AU8:AX8"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="N6:P6"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="BG7:BJ7"/>
+    <mergeCell ref="BG6:BJ6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="Q6:S6"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
   </mergeCells>
   <conditionalFormatting sqref="B10:Y10">
     <cfRule type="cellIs" dxfId="69" priority="34" operator="greaterThan">
@@ -7661,11 +7655,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE21:BJ21">
-    <cfRule type="cellIs" dxfId="50" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="15" operator="greaterThan">
+      <formula>"5$BK$21"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="14" operator="greaterThan">
       <formula>$BK$21</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="15" operator="greaterThan">
-      <formula>"5$BK$21"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE22:BJ22">
@@ -7747,8 +7741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{282C0AF7-2258-4A1B-A4FE-A5B0AD24C85B}">
   <dimension ref="A3:AH79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="68" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7779,161 +7773,190 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
+        <v>29</v>
+      </c>
+      <c r="K6" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18">
+        <v>0.01</v>
+      </c>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19">
-        <v>3412</v>
-      </c>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="K7" s="18">
+        <v>2605</v>
+      </c>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18">
+        <v>2605</v>
+      </c>
+      <c r="O7" s="18"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="N8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
+      <c r="I8">
+        <v>0.98</v>
+      </c>
+      <c r="K8" s="18">
+        <v>0.7</v>
+      </c>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18">
+        <v>0.75</v>
+      </c>
+      <c r="O8" s="18"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18">
+        <v>0.68</v>
+      </c>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="18">
         <f>AVERAGE(0.004, 0.002, 0.003, 0.002, 0.002, 0.002, 0.002, 0.003)</f>
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
         <v>0.31560575000000002</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="N9" s="19">
-        <v>48.203209999999999</v>
-      </c>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
-      <c r="W9" s="19"/>
-      <c r="X9" s="19"/>
-      <c r="Y9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18">
+        <v>43.38</v>
+      </c>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18">
+        <v>44.92</v>
+      </c>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18">
+        <v>44.7</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18">
+        <v>41.24</v>
+      </c>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="18"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="18">
         <v>0</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19">
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
         <v>6.4424999999999997E-4</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="19">
-        <v>3.1600000000000003E-2</v>
-      </c>
-      <c r="O10" s="19"/>
-      <c r="P10" s="19"/>
-      <c r="Q10" s="19"/>
-      <c r="R10" s="19"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-      <c r="W10" s="19"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="19"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18">
+        <v>0.03</v>
+      </c>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18">
+        <v>2.75E-2</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="18"/>
     </row>
     <row r="11" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="20" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20" t="s">
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20" t="s">
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20" t="s">
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="19" t="s">
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19" t="s">
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="19"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="18"/>
       <c r="Z11" t="s">
         <v>2</v>
       </c>
@@ -8037,24 +8060,42 @@
       <c r="G13" s="7">
         <v>0.476190476190476</v>
       </c>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="7"/>
+      <c r="H13" s="5">
+        <v>0.6835</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.64559999999999995</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.58230000000000004</v>
+      </c>
       <c r="N13" s="5">
-        <v>0.63749999999999996</v>
+        <v>0.59489999999999998</v>
       </c>
       <c r="O13" s="6">
-        <v>0.625</v>
+        <v>0.54430000000000001</v>
       </c>
       <c r="P13" s="7">
-        <v>0.63749999999999996</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="7"/>
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="R13" s="6">
+        <v>0.54430000000000001</v>
+      </c>
+      <c r="S13" s="7">
+        <v>0.49370000000000003</v>
+      </c>
       <c r="T13" s="5"/>
       <c r="U13" s="6"/>
       <c r="V13" s="7"/>
@@ -8063,7 +8104,7 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="14">
         <f>AVERAGE(B13:Y13)</f>
-        <v>0.52470122100122085</v>
+        <v>0.55061172161172145</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.3">
@@ -8088,24 +8129,42 @@
       <c r="G14" s="7">
         <v>0.54444444444444395</v>
       </c>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="7"/>
+      <c r="H14" s="5">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="I14" s="6">
+        <v>0.65880000000000005</v>
+      </c>
+      <c r="J14" s="7">
+        <v>0.57650000000000001</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.62350000000000005</v>
+      </c>
+      <c r="L14" s="6">
+        <v>0.61180000000000001</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0.65880000000000005</v>
+      </c>
       <c r="N14" s="5">
-        <v>0.69769999999999999</v>
+        <v>0.64710000000000001</v>
       </c>
       <c r="O14" s="6">
-        <v>0.66279999999999994</v>
+        <v>0.67059999999999997</v>
       </c>
       <c r="P14" s="7">
-        <v>0.58140000000000003</v>
-      </c>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="7"/>
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="R14" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="S14" s="7">
+        <v>0.61180000000000001</v>
+      </c>
       <c r="T14" s="5"/>
       <c r="U14" s="6"/>
       <c r="V14" s="7"/>
@@ -8114,7 +8173,7 @@
       <c r="Y14" s="7"/>
       <c r="Z14" s="14">
         <f t="shared" ref="Z14:Z20" si="0">AVERAGE(B14:Y14)</f>
-        <v>0.60033192239858879</v>
+        <v>0.60797151675485006</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.3">
@@ -8139,24 +8198,42 @@
       <c r="G15" s="7">
         <v>0.5</v>
       </c>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="7"/>
+      <c r="H15" s="5">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="I15" s="6">
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="L15" s="6">
+        <v>0.69620000000000004</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0.72150000000000003</v>
+      </c>
       <c r="N15" s="5">
-        <v>0.62029999999999996</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="O15" s="6">
-        <v>0.69620000000000004</v>
+        <v>0.60760000000000003</v>
       </c>
       <c r="P15" s="7">
-        <v>0.64559999999999995</v>
-      </c>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="7"/>
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.5696</v>
+      </c>
+      <c r="R15" s="6">
+        <v>0.5696</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0.65820000000000001</v>
+      </c>
       <c r="T15" s="5"/>
       <c r="U15" s="6"/>
       <c r="V15" s="7"/>
@@ -8165,7 +8242,7 @@
       <c r="Y15" s="7"/>
       <c r="Z15" s="14">
         <f t="shared" si="0"/>
-        <v>0.58476894586894579</v>
+        <v>0.60039002849002843</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -8190,24 +8267,42 @@
       <c r="G16" s="7">
         <v>0.68292682926829196</v>
       </c>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="7"/>
+      <c r="H16" s="5">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="I16" s="6">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="L16" s="6">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0.58230000000000004</v>
+      </c>
       <c r="N16" s="5">
-        <v>0.73419999999999996</v>
+        <v>0.70889999999999997</v>
       </c>
       <c r="O16" s="6">
-        <v>0.64559999999999995</v>
+        <v>0.5696</v>
       </c>
       <c r="P16" s="7">
-        <v>0.59489999999999998</v>
-      </c>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="7"/>
+        <v>0.5696</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.65820000000000001</v>
+      </c>
+      <c r="R16" s="6">
+        <v>0.55700000000000005</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0.55700000000000005</v>
+      </c>
       <c r="T16" s="5"/>
       <c r="U16" s="6"/>
       <c r="V16" s="7"/>
@@ -8216,7 +8311,7 @@
       <c r="Y16" s="7"/>
       <c r="Z16" s="14">
         <f t="shared" si="0"/>
-        <v>0.65541409214092117</v>
+        <v>0.63643482384823846</v>
       </c>
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.3">
@@ -8241,24 +8336,42 @@
       <c r="G17" s="7">
         <v>0.5</v>
       </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="7"/>
+      <c r="H17" s="5">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="I17" s="6">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="J17" s="7">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.53159999999999996</v>
+      </c>
+      <c r="L17" s="6">
+        <v>0.5696</v>
+      </c>
+      <c r="M17" s="7">
+        <v>0.64559999999999995</v>
+      </c>
       <c r="N17" s="5">
-        <v>0.6</v>
+        <v>0.55700000000000005</v>
       </c>
       <c r="O17" s="6">
-        <v>0.6875</v>
+        <v>0.70889999999999997</v>
       </c>
       <c r="P17" s="7">
-        <v>0.625</v>
-      </c>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="7"/>
+        <v>0.59489999999999998</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="R17" s="6">
+        <v>0.6835</v>
+      </c>
+      <c r="S17" s="7">
+        <v>0.67090000000000005</v>
+      </c>
       <c r="T17" s="5"/>
       <c r="U17" s="6"/>
       <c r="V17" s="7"/>
@@ -8267,7 +8380,7 @@
       <c r="Y17" s="7"/>
       <c r="Z17" s="14">
         <f t="shared" si="0"/>
-        <v>0.60321168091168076</v>
+        <v>0.61096695156695158</v>
       </c>
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.3">
@@ -8292,24 +8405,42 @@
       <c r="G18" s="7">
         <v>0.55952380952380898</v>
       </c>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="7"/>
+      <c r="H18" s="5">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="I18" s="6">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="J18" s="7">
+        <v>0.67090000000000005</v>
+      </c>
+      <c r="K18" s="5">
+        <v>0.58230000000000004</v>
+      </c>
+      <c r="L18" s="14">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0.70889999999999997</v>
+      </c>
       <c r="N18" s="5">
-        <v>0.61250000000000004</v>
+        <v>0.73419999999999996</v>
       </c>
       <c r="O18" s="6">
-        <v>0.65</v>
+        <v>0.64559999999999995</v>
       </c>
       <c r="P18" s="7">
-        <v>0.58750000000000002</v>
-      </c>
-      <c r="Q18" s="5"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="7"/>
+        <v>0.73419999999999996</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.63290000000000002</v>
+      </c>
+      <c r="R18" s="6">
+        <v>0.60760000000000003</v>
+      </c>
+      <c r="S18" s="7">
+        <v>0.70889999999999997</v>
+      </c>
       <c r="T18" s="5"/>
       <c r="U18" s="6"/>
       <c r="V18" s="7"/>
@@ -8318,7 +8449,7 @@
       <c r="Y18" s="7"/>
       <c r="Z18" s="14">
         <f t="shared" si="0"/>
-        <v>0.63625934065934053</v>
+        <v>0.65418522588522565</v>
       </c>
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.3">
@@ -8343,24 +8474,42 @@
       <c r="G19" s="7">
         <v>0.59210526315789402</v>
       </c>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="7"/>
+      <c r="H19" s="5">
+        <v>0.6351</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="J19" s="7">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="K19" s="5">
+        <v>0.58109999999999995</v>
+      </c>
+      <c r="L19" s="6">
+        <v>0.55410000000000004</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0.6351</v>
+      </c>
       <c r="N19" s="5">
-        <v>0.66669999999999996</v>
+        <v>0.66220000000000001</v>
       </c>
       <c r="O19" s="6">
-        <v>0.65329999999999999</v>
+        <v>0.62160000000000004</v>
       </c>
       <c r="P19" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="Q19" s="5"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="7"/>
+        <v>0.58109999999999995</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="R19" s="6">
+        <v>0.6351</v>
+      </c>
+      <c r="S19" s="7">
+        <v>0.56759999999999999</v>
+      </c>
       <c r="T19" s="5"/>
       <c r="U19" s="6"/>
       <c r="V19" s="7"/>
@@ -8369,7 +8518,7 @@
       <c r="Y19" s="7"/>
       <c r="Z19" s="14">
         <f t="shared" si="0"/>
-        <v>0.70863391812865484</v>
+        <v>0.65906140350877196</v>
       </c>
     </row>
     <row r="20" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8394,24 +8543,42 @@
       <c r="G20" s="7">
         <v>0.47368421052631499</v>
       </c>
-      <c r="H20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="7"/>
+      <c r="H20" s="5">
+        <v>0.71619999999999995</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="J20" s="7">
+        <v>0.64859999999999995</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="L20" s="6">
+        <v>0.56759999999999999</v>
+      </c>
+      <c r="M20" s="7">
+        <v>0.66220000000000001</v>
+      </c>
       <c r="N20" s="5">
-        <v>0.74670000000000003</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="O20" s="6">
-        <v>0.68</v>
+        <v>0.68920000000000003</v>
       </c>
       <c r="P20" s="7">
-        <v>0.64</v>
-      </c>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="7"/>
+        <v>0.66220000000000001</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.60809999999999997</v>
+      </c>
+      <c r="R20" s="6">
+        <v>0.67569999999999997</v>
+      </c>
+      <c r="S20" s="7">
+        <v>0.71619999999999995</v>
+      </c>
       <c r="T20" s="5"/>
       <c r="U20" s="6"/>
       <c r="V20" s="7"/>
@@ -8420,7 +8587,7 @@
       <c r="Y20" s="7"/>
       <c r="Z20" s="14">
         <f t="shared" si="0"/>
-        <v>0.64913668405247316</v>
+        <v>0.64368500869290335</v>
       </c>
     </row>
     <row r="21" spans="1:33" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8451,53 +8618,53 @@
         <f t="shared" si="2"/>
         <v>0.54110937913890378</v>
       </c>
-      <c r="H21" s="11" t="e">
+      <c r="H21" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="12" t="e">
+        <v>0.65258749999999999</v>
+      </c>
+      <c r="I21" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="13" t="e">
+        <v>0.62867500000000009</v>
+      </c>
+      <c r="J21" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K21" s="11" t="e">
+        <v>0.62641250000000015</v>
+      </c>
+      <c r="K21" s="11">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L21" s="12" t="e">
+        <v>0.61108750000000001</v>
+      </c>
+      <c r="L21" s="12">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M21" s="13" t="e">
+        <v>0.60593749999999991</v>
+      </c>
+      <c r="M21" s="13">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.64958749999999998</v>
       </c>
       <c r="N21" s="11">
         <f>AVERAGE(N13:N20)</f>
-        <v>0.66444999999999987</v>
+        <v>0.64506249999999998</v>
       </c>
       <c r="O21" s="12">
         <f t="shared" ref="O21:Y21" si="3">AVERAGE(O13:O20)</f>
-        <v>0.66254999999999997</v>
+        <v>0.63217499999999993</v>
       </c>
       <c r="P21" s="13">
         <f t="shared" si="3"/>
-        <v>0.61398749999999991</v>
-      </c>
-      <c r="Q21" s="11" t="e">
+        <v>0.62406249999999996</v>
+      </c>
+      <c r="Q21" s="11">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R21" s="12" t="e">
+        <v>0.61793750000000014</v>
+      </c>
+      <c r="R21" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S21" s="12" t="e">
+        <v>0.60909999999999997</v>
+      </c>
+      <c r="S21" s="12">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.62303749999999991</v>
       </c>
       <c r="T21" s="11" t="e">
         <f t="shared" si="3"/>
@@ -8553,11 +8720,6 @@
     <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="Z23" s="1"/>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
-      <c r="L25" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
@@ -8565,17 +8727,17 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.3">
@@ -8681,54 +8843,54 @@
       <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18" t="s">
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18" t="s">
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18" t="s">
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18" t="s">
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18" t="s">
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
+      <c r="V33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="W33" s="18"/>
-      <c r="X33" s="18"/>
-      <c r="Y33" s="18"/>
-      <c r="Z33" s="18" t="s">
+      <c r="W33" s="20"/>
+      <c r="X33" s="20"/>
+      <c r="Y33" s="20"/>
+      <c r="Z33" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AA33" s="18"/>
-      <c r="AB33" s="18"/>
-      <c r="AC33" s="18"/>
-      <c r="AD33" s="18" t="s">
+      <c r="AA33" s="20"/>
+      <c r="AB33" s="20"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="18"/>
-      <c r="AG33" s="18"/>
+      <c r="AE33" s="20"/>
+      <c r="AF33" s="20"/>
+      <c r="AG33" s="20"/>
       <c r="AH33" t="s">
         <v>2</v>
       </c>
@@ -10435,22 +10597,22 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
-      <c r="J79" s="19"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="19"/>
-      <c r="M79" s="19"/>
-      <c r="N79" s="19"/>
-      <c r="O79" s="19"/>
-      <c r="P79" s="19"/>
-      <c r="Q79" s="19"/>
-      <c r="R79" s="19"/>
-      <c r="S79" s="19"/>
-      <c r="T79" s="19"/>
-      <c r="U79" s="19"/>
-      <c r="V79" s="19"/>
-      <c r="W79" s="19"/>
-      <c r="X79" s="19"/>
-      <c r="Y79" s="19"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
+      <c r="Y79" s="18"/>
       <c r="Z79" s="4"/>
       <c r="AA79" s="4"/>
       <c r="AB79" s="4"/>
@@ -10461,7 +10623,36 @@
       <c r="AG79" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
+  <mergeCells count="45">
+    <mergeCell ref="R79:U79"/>
+    <mergeCell ref="V79:Y79"/>
+    <mergeCell ref="N8:P8"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="J79:M79"/>
+    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="N33:Q33"/>
+    <mergeCell ref="R33:U33"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="N9:P9"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="V33:Y33"/>
@@ -10472,39 +10663,12 @@
     <mergeCell ref="Q6:S6"/>
     <mergeCell ref="Q7:S7"/>
     <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="N33:Q33"/>
-    <mergeCell ref="R33:U33"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="N9:P9"/>
-    <mergeCell ref="Q10:S10"/>
     <mergeCell ref="T10:V10"/>
     <mergeCell ref="W10:Y10"/>
     <mergeCell ref="T9:V9"/>
     <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="T11:V11"/>
     <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="R79:U79"/>
-    <mergeCell ref="V79:Y79"/>
-    <mergeCell ref="N8:P8"/>
-    <mergeCell ref="N10:P10"/>
-    <mergeCell ref="J79:M79"/>
-    <mergeCell ref="N79:Q79"/>
+    <mergeCell ref="K8:M8"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:Y13">
     <cfRule type="cellIs" dxfId="35" priority="10" operator="greaterThan">
@@ -10521,167 +10685,167 @@
       <formula>$Z$15</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:Y16">
-    <cfRule type="cellIs" dxfId="32" priority="7" operator="greaterThan">
-      <formula>$Z$16</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B17:Y17">
-    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
-      <formula>$Z$17</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="greaterThan">
-      <formula>"59.38%$Z$15"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B18:Y18">
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="greaterThan">
-      <formula>$Z$18</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="greaterThan">
-      <formula>"$Z$16"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B19:Y19">
-    <cfRule type="cellIs" dxfId="27" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="greaterThan">
       <formula>$Z$19</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:Y20">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="greaterThan">
       <formula>$Z$20</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:AG35">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="greaterThan">
       <formula>$AH$35</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36:AG36">
-    <cfRule type="cellIs" dxfId="24" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="37" operator="greaterThan">
       <formula>$AH$36</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37:AG37">
-    <cfRule type="cellIs" dxfId="23" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="28" priority="36" operator="greaterThan">
       <formula>$AH$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:AG38">
-    <cfRule type="cellIs" dxfId="22" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="35" operator="greaterThan">
       <formula>$AH$38</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:AG39">
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="greaterThan">
       <formula>0.5692</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:AG40">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="33" operator="greaterThan">
       <formula>$AH$40</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41:AG41">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="32" operator="greaterThan">
       <formula>$AH$41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B42:AG42">
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="greaterThan">
       <formula>0.5588</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:AG43">
-    <cfRule type="cellIs" dxfId="17" priority="30" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="30" operator="greaterThan">
       <formula>$AH$43</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:AG44">
-    <cfRule type="cellIs" dxfId="16" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="29" operator="greaterThan">
       <formula>$AH$44</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:AG45">
-    <cfRule type="cellIs" dxfId="15" priority="28" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="28" operator="greaterThan">
       <formula>$AH$45</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:AG46">
-    <cfRule type="cellIs" dxfId="14" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="26" operator="greaterThan">
       <formula>$AH$46</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="27" operator="greaterThan">
       <formula>"5$BK$21"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47:AG47">
-    <cfRule type="cellIs" dxfId="12" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="17" priority="25" operator="greaterThan">
       <formula>$AH$47</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:AG48">
-    <cfRule type="cellIs" dxfId="11" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="greaterThan">
       <formula>$AH$48</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B49:AG49">
-    <cfRule type="cellIs" dxfId="10" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="greaterThan">
       <formula>$AH$49</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50:AG50">
-    <cfRule type="cellIs" dxfId="9" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="14" priority="22" operator="greaterThan">
       <formula>$AH$50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:AG51">
-    <cfRule type="cellIs" dxfId="8" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="21" operator="greaterThan">
       <formula>$AH$51</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B52:AG52">
-    <cfRule type="cellIs" dxfId="7" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="greaterThan">
       <formula>$AH$52</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53:AG53">
-    <cfRule type="cellIs" dxfId="6" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="19" operator="greaterThan">
       <formula>$AH$53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B54:AG54">
-    <cfRule type="cellIs" dxfId="5" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
       <formula>$AH$54</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B55:AG55">
-    <cfRule type="cellIs" dxfId="4" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="17" operator="greaterThan">
       <formula>$AH$55</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B56:AG56">
-    <cfRule type="cellIs" dxfId="3" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="16" operator="greaterThan">
       <formula>$AH$56</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B57:AG57">
-    <cfRule type="cellIs" dxfId="2" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="15" operator="greaterThan">
       <formula>$AH$57</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B58:AG58">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="14" operator="greaterThan">
       <formula>$AH$58</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B59:AG59">
-    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="13" operator="greaterThan">
       <formula>$AH$59</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L15 B16:K16 M16:Y16">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="greaterThan">
+      <formula>$Z$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L16 B17:K17 M17:Y17">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
+      <formula>$Z$17</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" operator="greaterThan">
+      <formula>"59.38%$Z$15"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L17 B18:K18 M18:Y18">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="greaterThan">
+      <formula>$Z$18</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="greaterThan">
+      <formula>"$Z$16"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N13:N14 Q13:R20 O13:P13 S14:Y20 E13:G20 K13:M20" xr:uid="{A81F32AE-EECD-4A1E-9CC5-9AA7EC84EA19}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q13:R20 O13:P13 S14:Y20 E13:G20 L15:L17 K13:N14 K19:M20 K15:K18 M15:M18" xr:uid="{A81F32AE-EECD-4A1E-9CC5-9AA7EC84EA19}">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
